--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,142 +49,148 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>little</t>
   </si>
   <si>
     <t>clean</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>quality</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2945736434108527</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +685,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8695652173913043</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8671875</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +737,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8513931888544891</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +763,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +789,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7173913043478261</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +815,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +841,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6590909090909091</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +867,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6508474576271186</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L11">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M11">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +893,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6491228070175439</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +919,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6438356164383562</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +945,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6338028169014085</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +971,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +997,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>793</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>793</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1023,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.622792937399679</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>776</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>776</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>470</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1049,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1075,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5726495726495726</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1101,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5694444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1127,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.515625</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1153,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5112781954887218</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1179,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5060240963855421</v>
+        <v>0.515625</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1205,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4923076923076923</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1231,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4910179640718563</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L25">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1257,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4807692307692308</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M26">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1283,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4754098360655737</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1309,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4397590361445783</v>
+        <v>0.44</v>
       </c>
       <c r="L28">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1329,13 +1335,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.3947368421052632</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1347,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1355,13 +1361,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3884892086330936</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1373,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1381,13 +1387,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3848039215686275</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L31">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1399,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>251</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1407,13 +1413,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3813229571984436</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="M32">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1425,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>159</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1433,13 +1439,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.38</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1451,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1459,13 +1465,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3328767123287671</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L34">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1477,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>487</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1485,13 +1491,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3308270676691729</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1503,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1511,13 +1517,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2882882882882883</v>
+        <v>0.3191780821917808</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1529,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>79</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1537,13 +1543,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2631578947368421</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L37">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1563,13 +1569,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2561894510226049</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L38">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1581,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>691</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1589,13 +1595,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2288401253918495</v>
+        <v>0.2583423035522067</v>
       </c>
       <c r="L39">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="M39">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>246</v>
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1615,13 +1621,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2185430463576159</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1641,13 +1647,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2145695364238411</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L41">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="M41">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1659,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>593</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1667,13 +1673,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1879795396419437</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="L42">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1685,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>635</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1693,25 +1699,25 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1653116531165312</v>
+        <v>0.1994884910485933</v>
       </c>
       <c r="L43">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="M43">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>308</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1719,13 +1725,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1477272727272727</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>375</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1745,13 +1751,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.138655462184874</v>
+        <v>0.1933774834437086</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1763,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>205</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1771,13 +1777,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1337719298245614</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1789,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>395</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1797,13 +1803,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1313868613138686</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="L47">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M47">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1823,13 +1829,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1030927835051546</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1841,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>261</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1849,13 +1855,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.09562841530054644</v>
+        <v>0.125</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1875,13 +1881,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.08353221957040573</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L50">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1893,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>384</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1901,25 +1907,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.08321377331420372</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M51">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>639</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1927,25 +1933,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.07109448082319925</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L52">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>993</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1953,25 +1959,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.05730129390018484</v>
+        <v>0.09182209469153516</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>510</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1979,25 +1985,77 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.03996524761077324</v>
+        <v>0.0765639589169001</v>
       </c>
       <c r="L54">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M54">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1105</v>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55">
+        <v>0.05535055350553506</v>
+      </c>
+      <c r="L55">
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>30</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56">
+        <v>0.046875</v>
+      </c>
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56">
+        <v>59</v>
+      </c>
+      <c r="N56">
+        <v>0.92</v>
+      </c>
+      <c r="O56">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
